--- a/dataset/photovoltaic/PreSchool/2022_11/30.xlsx
+++ b/dataset/photovoltaic/PreSchool/2022_11/30.xlsx
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,7 +543,63 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
+      <c r="A22" s="2">
+        <v>44895.70833333334</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2">
+        <v>44895.75</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2">
+        <v>44895.79166666666</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2">
+        <v>44895.83333333334</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2">
+        <v>44895.875</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2">
+        <v>44895.91666666666</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2">
+        <v>44895.95833333334</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
